--- a/Website/Attachments/ImportSample/DealerImportSample.xlsx
+++ b/Website/Attachments/ImportSample/DealerImportSample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArunSpace\WebApp\Website\Attachments\ImportSample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\Our Projects\Thrivera\Website\Attachments\ImportSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>DealerCode</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Local</t>
+  </si>
+  <si>
+    <t>IsHiringOpen</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -594,6 +600,9 @@
       </c>
       <c r="S2" t="s">
         <v>29</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
